--- a/biology/Botanique/Tillandsia_extensa/Tillandsia_extensa.xlsx
+++ b/biology/Botanique/Tillandsia_extensa/Tillandsia_extensa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia extensa Mez est une plante de la famille des Bromeliaceae.
 L'épithète extensa, « allongée », se rapporte à la longueur de la tige florale.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia extensa Mez, in Repert. Spec. Nov. Regni Veg. 3: 33 (1906)
-Diagnose originale[1] :
+Diagnose originale :
 « Foliis utrinque lepidibus conspicuis, pallidis, appressis dense conspersis; inflorescentia centrali, ample 4-pinnatim panniculata[sic]; spicis valde elongatis, dense pinnatis, fere rectis; bracteis florigeris suberecto-erectis, nec imbricatis nec axes obtegentibus, dorso glabris conspicueque prominenti-venosis, quam sepala permulto brevioribus; sepalis subaequaliter ad 3 mm connatis, apice rotundatis; petalis tubulose erectis, violaceis, quam stamina brevioribus. »
-Type : leg. Weberbauer, n° 3296, 1903-07-05 ; « Peruvia, prov. Huari, dept. Ancachs, in valle super Masin, alt. 2500 m » ; Herb. Berol[1].
+Type : leg. Weberbauer, n° 3296, 1903-07-05 ; « Peruvia, prov. Huari, dept. Ancachs, in valle super Masin, alt. 2500 m » ; Herb. Berol.
 leg. A. Weberbauer, n° 3296, 1903-07-05 ; « Peru: Tuccha-Thal oberhalb Masin, Dept. Ancachs, Prov. Huari. Felsen - 2500 m » ; Holotypus B (B 10 0243333)
 leg. A. Weberbauer, n° 3296 ; Isotypus B (10 0243334)
 leg. A. Weberbauer, n° 3296 ; Isotypus B (10 0243335)
@@ -550,7 +564,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,11 +624,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux ; saxicole[1], rupicole[2].
-Habitat : falaises[2].
-Altitude : 500-2500 m[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée en rosette, monocarpique, vivace par ses rejets latéraux ; saxicole, rupicole.
+Habitat : falaises.
+Altitude : 500-2500 m.</t>
         </is>
       </c>
     </row>
@@ -638,11 +658,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
- Pérou[2]
-Ancash[1]</t>
+ Pérou
+Ancash</t>
         </is>
       </c>
     </row>
@@ -671,6 +693,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
